--- a/Data/Results/Affinity_Labels_2016.xlsx
+++ b/Data/Results/Affinity_Labels_2016.xlsx
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -867,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -900,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -922,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -966,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -999,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
